--- a/data/trans_dic/P40_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P40_R2-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4791554152810511</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5642390542655148</v>
+        <v>0.5642390542655147</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4012838604565798</v>
@@ -697,7 +697,7 @@
         <v>0.4150621962732144</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4923839219778411</v>
+        <v>0.492383921977841</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.288374607574693</v>
+        <v>0.287572455637887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3070842375979287</v>
+        <v>0.3072640458365912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2988187160818038</v>
+        <v>0.2988865036585442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3548036734094713</v>
+        <v>0.3498298436895794</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4408515154249948</v>
+        <v>0.4399726481644923</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4485413780690098</v>
+        <v>0.4469155212106864</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4467708716480234</v>
+        <v>0.4464755732041864</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5363688858294969</v>
+        <v>0.5377225824891193</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3807793763458891</v>
+        <v>0.3809779184573812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3946677536346174</v>
+        <v>0.3950536872707133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3892761537906957</v>
+        <v>0.3899293706738607</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4680766617730425</v>
+        <v>0.4701267470976308</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.346661846189853</v>
+        <v>0.3461498263636639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3743838965679731</v>
+        <v>0.3700114327608708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3637767036282227</v>
+        <v>0.3652785084854767</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.429778502518625</v>
+        <v>0.4285577535701187</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4952141879306235</v>
+        <v>0.4939925811495898</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5022862687679835</v>
+        <v>0.5003143508468295</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5131057627244696</v>
+        <v>0.5187102234293444</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.591573008613257</v>
+        <v>0.5936423752127969</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4212712982593846</v>
+        <v>0.4231270876361022</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4376752270180587</v>
+        <v>0.4378183380766161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4374671649244222</v>
+        <v>0.4407134200517697</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5152361960756214</v>
+        <v>0.5141624896081614</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1782217638854845</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2105902472209379</v>
+        <v>0.2105902472209378</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1307132149600109</v>
@@ -833,7 +833,7 @@
         <v>0.1482008602832456</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1824744775194621</v>
+        <v>0.1824744775194622</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07452600438141074</v>
+        <v>0.07453672769016374</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09257197972987395</v>
+        <v>0.09108362092350514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1054344592375377</v>
+        <v>0.1056418129028477</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1407081807909663</v>
+        <v>0.139392519316274</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1582772241316893</v>
+        <v>0.1580280454429438</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1423061530073862</v>
+        <v>0.1425408586428974</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1590832466794423</v>
+        <v>0.1618902517795846</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1957306152289085</v>
+        <v>0.1943157296261604</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.11933427056863</v>
+        <v>0.1191130246155647</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1214949461033884</v>
+        <v>0.1203106125926376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1369732879690198</v>
+        <v>0.1376487089472231</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.171362933087593</v>
+        <v>0.1713956192558515</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1016110218389005</v>
+        <v>0.1036901568066951</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1200747915719835</v>
+        <v>0.120593758947815</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1348597746761075</v>
+        <v>0.1342992007371187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1736067054653662</v>
+        <v>0.1710073669673277</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1962657126649439</v>
+        <v>0.195141082808449</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1785438428603827</v>
+        <v>0.178843266661682</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1972575357154937</v>
+        <v>0.1973851439485833</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2278847423740706</v>
+        <v>0.2264695216987495</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.143215918066465</v>
+        <v>0.1421595893459808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1431388509092321</v>
+        <v>0.1434309088107554</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1595916688905117</v>
+        <v>0.1608892190040516</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1939607936758359</v>
+        <v>0.1933993905238085</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06601423339503226</v>
+        <v>0.06463201467652196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0555348085788534</v>
+        <v>0.05594543902690791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05929804596247476</v>
+        <v>0.06115721628346702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09876331980680358</v>
+        <v>0.09879384610243226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1108251158802454</v>
+        <v>0.1103929327181869</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0627689697774171</v>
+        <v>0.06109593912765306</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07997845205286773</v>
+        <v>0.077091841727206</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1208208516151453</v>
+        <v>0.1197322688900439</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0948539454343592</v>
+        <v>0.09520291997842852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06738090524842363</v>
+        <v>0.06610058684932013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07545673492314647</v>
+        <v>0.07516669098957944</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1169254794175802</v>
+        <v>0.1156175158492169</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1161959639298349</v>
+        <v>0.1174996203069226</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1145541346308474</v>
+        <v>0.1165690353968029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1137060622340881</v>
+        <v>0.1100442485419105</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1495375991748881</v>
+        <v>0.1519562023845229</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1765804401052816</v>
+        <v>0.1768840536489946</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1217732674527105</v>
+        <v>0.1218038852256818</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1330117764588071</v>
+        <v>0.1338656984785124</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1662238020720072</v>
+        <v>0.166813598716453</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1384184916535304</v>
+        <v>0.1358604485650757</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1084396853904482</v>
+        <v>0.1071104279394577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1125657504011692</v>
+        <v>0.1127975571476556</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1485767210901812</v>
+        <v>0.1499749553561075</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.251654350955078</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2750390837116009</v>
+        <v>0.275039083711601</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2233799850443592</v>
@@ -1105,7 +1105,7 @@
         <v>0.2069902900136817</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.232302395940712</v>
+        <v>0.2323023959407121</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1469235348086214</v>
+        <v>0.1476316804644142</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1545866463984565</v>
+        <v>0.1551810508590612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1482215254640499</v>
+        <v>0.1478188841201863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1736255029187564</v>
+        <v>0.174319070774341</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2690716754429285</v>
+        <v>0.2698642362474384</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2537280962410066</v>
+        <v>0.2533379398644883</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2376858762140151</v>
+        <v>0.2369091560921926</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.26287239155828</v>
+        <v>0.2620474560581041</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2129795795696373</v>
+        <v>0.213429527314259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2106254431764748</v>
+        <v>0.2093920530735277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1968969946908948</v>
+        <v>0.1974494687585407</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2237837141437085</v>
+        <v>0.2232968198241538</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1729439930733341</v>
+        <v>0.1731367907260616</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1830843166991058</v>
+        <v>0.1823949271581692</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1759900868892248</v>
+        <v>0.1737033924241963</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.199681833321645</v>
+        <v>0.2003577340813097</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3011307680798105</v>
+        <v>0.2998451651283331</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2852282187506311</v>
+        <v>0.2847915374216122</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2667165596137175</v>
+        <v>0.2682919945208059</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2880488736626282</v>
+        <v>0.2870193754056121</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2341695858661786</v>
+        <v>0.2336515204656683</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2312988623938531</v>
+        <v>0.2310214909858545</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2168924663763481</v>
+        <v>0.2167463640321126</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2402968138212969</v>
+        <v>0.2415833665140244</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>297250</v>
+        <v>296424</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>296822</v>
+        <v>296996</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>222781</v>
+        <v>222831</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>205264</v>
+        <v>202387</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>578981</v>
+        <v>577827</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>598320</v>
+        <v>596151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>441938</v>
+        <v>441646</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>440916</v>
+        <v>442028</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>892586</v>
+        <v>893052</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>907934</v>
+        <v>908822</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>675285</v>
+        <v>676418</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>655573</v>
+        <v>658444</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>357332</v>
+        <v>356804</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>361872</v>
+        <v>357646</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>271209</v>
+        <v>272329</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>248639</v>
+        <v>247933</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>650377</v>
+        <v>648773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>670011</v>
+        <v>667381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>507555</v>
+        <v>513099</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>486295</v>
+        <v>487997</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>987504</v>
+        <v>991854</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1006873</v>
+        <v>1007202</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>758883</v>
+        <v>764514</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>721623</v>
+        <v>720119</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>126063</v>
+        <v>126081</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>178712</v>
+        <v>175838</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>217923</v>
+        <v>218351</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>313859</v>
+        <v>310924</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>251292</v>
+        <v>250897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>247744</v>
+        <v>248153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>313296</v>
+        <v>318824</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>425008</v>
+        <v>421936</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>391322</v>
+        <v>390596</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>446061</v>
+        <v>441713</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>552863</v>
+        <v>555589</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>754333</v>
+        <v>754476</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>171878</v>
+        <v>175395</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>231806</v>
+        <v>232808</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>278742</v>
+        <v>277583</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>387241</v>
+        <v>381443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>311606</v>
+        <v>309820</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>310831</v>
+        <v>311352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>388476</v>
+        <v>388727</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>494827</v>
+        <v>491754</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>469634</v>
+        <v>466171</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>525525</v>
+        <v>526598</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>644157</v>
+        <v>649395</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>853807</v>
+        <v>851336</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36401</v>
+        <v>35639</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26564</v>
+        <v>26761</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32316</v>
+        <v>33329</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>70279</v>
+        <v>70300</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>52798</v>
+        <v>52593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28635</v>
+        <v>27872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>43450</v>
+        <v>41882</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>88788</v>
+        <v>87988</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>97493</v>
+        <v>97851</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>62970</v>
+        <v>61773</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>82115</v>
+        <v>81800</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>169128</v>
+        <v>167237</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64071</v>
+        <v>64790</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54795</v>
+        <v>55759</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61966</v>
+        <v>59971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>106409</v>
+        <v>108130</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>84125</v>
+        <v>84270</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55553</v>
+        <v>55567</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72262</v>
+        <v>72725</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>122154</v>
+        <v>122587</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>142269</v>
+        <v>139640</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>101341</v>
+        <v>100099</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>122499</v>
+        <v>122751</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>214911</v>
+        <v>216933</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>480987</v>
+        <v>483305</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>521796</v>
+        <v>523803</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>497640</v>
+        <v>496288</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>611280</v>
+        <v>613722</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>908765</v>
+        <v>911442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>895926</v>
+        <v>894548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>832337</v>
+        <v>829617</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>980069</v>
+        <v>976993</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1416555</v>
+        <v>1419547</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1454680</v>
+        <v>1446161</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1350565</v>
+        <v>1354355</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1622206</v>
+        <v>1618676</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>566170</v>
+        <v>566801</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>617988</v>
+        <v>615661</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>590871</v>
+        <v>583193</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>703016</v>
+        <v>705396</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1017042</v>
+        <v>1012700</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1007155</v>
+        <v>1005613</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>933998</v>
+        <v>939515</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1073935</v>
+        <v>1070096</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1557492</v>
+        <v>1554046</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1597460</v>
+        <v>1595545</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1487719</v>
+        <v>1486717</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1741909</v>
+        <v>1751235</v>
       </c>
     </row>
     <row r="20">
